--- a/PointsTiming/القرية الذكية/Daily/يوم 16-7-2025.xlsx
+++ b/PointsTiming/القرية الذكية/Daily/يوم 16-7-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="18- الواحات" sheetId="4" r:id="rId1"/>
@@ -2360,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2515,7 +2515,6 @@
     <xf numFmtId="178" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2601,7 +2600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2701,9 +2699,6 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2711,9 +2706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3081,39 +3073,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:7">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" ht="15.5" spans="1:7">
       <c r="A4" s="3"/>
@@ -3169,7 +3161,7 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:7">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17"/>
@@ -3483,7 +3475,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="15.5" spans="1:7">
-      <c r="A33" s="94"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3519,7 +3511,7 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" ht="15.5" spans="1:7">
-      <c r="A37" s="94"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3604,12 +3596,12 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:H31"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4033,7 +4025,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15">
-        <v>0.892361111111111</v>
+        <v>0.850694444444444</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -4389,9 +4381,9 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" ht="15.5" spans="1:7">
       <c r="A15" s="23" t="s">
@@ -7031,7 +7023,7 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:E29"/>
@@ -7563,7 +7555,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="119"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
@@ -7576,7 +7568,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="119"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="O7" s="1" t="s">
@@ -7594,7 +7586,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="130"/>
+      <c r="I8" s="126"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
@@ -7606,7 +7598,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="131"/>
+      <c r="I9" s="127"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
@@ -7629,7 +7621,7 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="131"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
@@ -7643,7 +7635,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="130"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
@@ -7658,7 +7650,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="130"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
@@ -7679,7 +7671,7 @@
         <v>0.333333333333334</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="130"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
     </row>
@@ -7691,15 +7683,15 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="130"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="124" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="15">
@@ -7711,18 +7703,18 @@
       <c r="D15" s="15">
         <v>0.364583333333333</v>
       </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="14">
         <v>0.371527777777778</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="131"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:11">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="124" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="15"/>
@@ -7733,22 +7725,22 @@
         <v>0.375</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="131"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.5" spans="1:11">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="124" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="131"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
@@ -7756,12 +7748,12 @@
       <c r="A18" s="24"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="130"/>
+      <c r="I18" s="126"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
     </row>
@@ -7772,10 +7764,10 @@
       <c r="B19" s="13">
         <v>0.399305555555556</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="58">
         <v>0.402777777777778</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="58">
         <v>0.40625</v>
       </c>
       <c r="E19" s="13">
@@ -7786,7 +7778,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="130"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
     </row>
@@ -7795,13 +7787,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="58"/>
       <c r="E20" s="25"/>
       <c r="G20" s="13">
         <v>0.416666666666667</v>
       </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="130"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="O20" t="s">
@@ -7821,7 +7813,7 @@
       <c r="H21" s="14">
         <v>0.402777777777778</v>
       </c>
-      <c r="I21" s="131"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
@@ -7836,7 +7828,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="13"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="131"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
@@ -7844,11 +7836,11 @@
       <c r="A23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="58">
         <v>0.440972222222222</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58">
         <v>0.447916666666667</v>
       </c>
       <c r="E23" s="13">
@@ -7856,7 +7848,7 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="131"/>
+      <c r="I23" s="127"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
@@ -7864,8 +7856,8 @@
       <c r="A24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="14">
@@ -7874,8 +7866,8 @@
       <c r="G24" s="15">
         <v>0.458333333333333</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="131"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
@@ -7908,17 +7900,17 @@
       <c r="B27" s="15">
         <v>0.475694444444444</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15">
         <v>0.486111111111111</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="59">
+      <c r="G27" s="58">
         <v>0.993055555555556</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="119"/>
+      <c r="I27" s="117"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="O27" t="s">
@@ -7930,17 +7922,17 @@
         <v>72</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="59"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="25"/>
       <c r="F28" s="14"/>
       <c r="G28" s="25"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="119"/>
+      <c r="I28" s="117"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" ht="15.5" spans="1:11">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="125" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="15">
@@ -7956,12 +7948,12 @@
       <c r="F29" s="15"/>
       <c r="G29" s="26"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="131"/>
+      <c r="I29" s="127"/>
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" ht="15.5" spans="1:11">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="125" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="15"/>
@@ -7971,7 +7963,7 @@
         <v>0.534722222222222</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="131"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
@@ -7990,7 +7982,7 @@
         <v>0.576388888888889</v>
       </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="130"/>
+      <c r="I31" s="126"/>
       <c r="J31" s="7"/>
       <c r="K31" s="8"/>
     </row>
@@ -8005,7 +7997,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="130"/>
+      <c r="I32" s="126"/>
       <c r="J32" s="7"/>
       <c r="K32" s="8"/>
     </row>
@@ -8026,7 +8018,7 @@
         <v>0.618055555555556</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="131"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
@@ -8038,10 +8030,10 @@
       <c r="C34" s="25"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="131"/>
+      <c r="I34" s="127"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
@@ -8053,12 +8045,12 @@
         <v>0.642361111111111</v>
       </c>
       <c r="C35" s="25"/>
-      <c r="D35" s="58"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="14"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="130"/>
+      <c r="I35" s="126"/>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
     </row>
@@ -8073,11 +8065,11 @@
       <c r="D36" s="15">
         <v>0.649305555555556</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="130"/>
+      <c r="I36" s="126"/>
       <c r="J36" s="7"/>
       <c r="K36" s="8"/>
     </row>
@@ -8094,9 +8086,9 @@
       <c r="F37" s="14">
         <v>0.65625</v>
       </c>
-      <c r="G37" s="58"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="130"/>
+      <c r="I37" s="126"/>
       <c r="J37" s="7"/>
       <c r="K37" s="8"/>
     </row>
@@ -8104,16 +8096,16 @@
       <c r="A38" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="15">
         <v>0.659722222222222</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="130"/>
+      <c r="I38" s="126"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
     </row>
@@ -8121,20 +8113,20 @@
       <c r="A39" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58">
         <v>0.680555555555556</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59">
+      <c r="D39" s="58"/>
+      <c r="E39" s="58">
         <v>0.6875</v>
       </c>
-      <c r="F39" s="59"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="15">
         <v>0.694444444444444</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="130"/>
+      <c r="I39" s="126"/>
       <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="O39" t="s">
@@ -8152,20 +8144,20 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="131"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" ht="15.5" spans="1:11">
-      <c r="A41" s="129"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="15"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="59"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="131"/>
+      <c r="I41" s="127"/>
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
@@ -8179,14 +8171,14 @@
       <c r="E42" s="15">
         <v>0.729166666666667</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="58">
         <v>0.732638888888889</v>
       </c>
       <c r="G42" s="15">
         <v>0.736111111111111</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="130"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="7"/>
       <c r="K42" s="8"/>
     </row>
@@ -8203,7 +8195,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="131"/>
+      <c r="I43" s="127"/>
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
     </row>
@@ -8220,7 +8212,7 @@
         <v>0.819444444444445</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="130"/>
+      <c r="I44" s="126"/>
       <c r="J44" s="7"/>
       <c r="K44" s="8"/>
     </row>
@@ -8231,7 +8223,7 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="130"/>
+      <c r="I45" s="126"/>
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
     </row>
@@ -8248,7 +8240,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="131"/>
+      <c r="I46" s="127"/>
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
     </row>
@@ -8260,10 +8252,10 @@
       <c r="C47" s="26"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="131"/>
+      <c r="I47" s="127"/>
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
     </row>
@@ -8284,7 +8276,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="25"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="131"/>
+      <c r="I48" s="127"/>
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
@@ -8301,7 +8293,7 @@
         <v>0.902777777777778</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="130"/>
+      <c r="I49" s="126"/>
       <c r="J49" s="7"/>
       <c r="K49" s="8"/>
     </row>
@@ -9177,14 +9169,14 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -9366,7 +9358,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="H12" s="115"/>
+      <c r="H12" s="113"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:9">
@@ -9404,7 +9396,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" ht="15.5" spans="1:9">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="121" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="14">
@@ -9427,7 +9419,7 @@
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:9">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="121" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="13"/>
@@ -9440,7 +9432,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="121" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="14">
@@ -9461,7 +9453,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="123"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="15"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -9497,7 +9489,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" s="122" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+    <row r="21" s="120" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A21" s="24" t="s">
         <v>116</v>
       </c>
@@ -9513,9 +9505,9 @@
       <c r="F21" s="14">
         <v>0.534722222222222</v>
       </c>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" ht="15.5" spans="1:9">
       <c r="A22" s="24" t="s">
@@ -9538,7 +9530,7 @@
       <c r="A23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="84">
         <v>0.572916666666666</v>
       </c>
       <c r="C23" s="25"/>
@@ -9554,13 +9546,13 @@
       <c r="A24" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="84">
         <v>0.618055555555556</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="85"/>
-      <c r="G24" s="85">
+      <c r="E24" s="84"/>
+      <c r="G24" s="84">
         <v>0.621527777777778</v>
       </c>
       <c r="H24" s="15"/>
@@ -9586,7 +9578,7 @@
       <c r="B26" s="15">
         <v>0.65625</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="84">
         <v>0.657638888888889</v>
       </c>
       <c r="D26" s="15">
@@ -9647,7 +9639,7 @@
       <c r="A30" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14">
         <v>0.743055555555556</v>
@@ -9700,7 +9692,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="126"/>
+      <c r="H33" s="123"/>
       <c r="I33" s="15"/>
     </row>
     <row r="34" ht="15.5" spans="1:9">
@@ -9825,14 +9817,14 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="32" t="s">
@@ -9981,9 +9973,9 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="114"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="115"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
@@ -10044,7 +10036,7 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" ht="15.5" spans="1:13">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="114" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="14">
@@ -10070,7 +10062,7 @@
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:13">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="114" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="15"/>
@@ -10086,7 +10078,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="114" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="15">
@@ -10197,8 +10189,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118">
+      <c r="C24" s="115"/>
+      <c r="D24" s="116">
         <v>0.479166666666667</v>
       </c>
       <c r="E24" s="15"/>
@@ -10288,7 +10280,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="119"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14">
         <v>0.604166666666667</v>
@@ -10353,10 +10345,10 @@
         <v>161</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="120">
+      <c r="C34" s="118">
         <v>0.684027777777778</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="118">
         <v>0.6875</v>
       </c>
       <c r="F34" s="25"/>
@@ -10422,7 +10414,7 @@
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="117"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="14">
         <v>0.809027777777778</v>
       </c>
@@ -10499,7 +10491,7 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" ht="15.75" hidden="1" customHeight="1" spans="1:9">
-      <c r="A47" s="121" t="s">
+      <c r="A47" s="119" t="s">
         <v>128</v>
       </c>
       <c r="B47" s="17"/>
@@ -10619,71 +10611,71 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="110" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="R3" s="108" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:18">
       <c r="A4" s="3"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="98" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:18">
       <c r="A5" s="3"/>
@@ -10732,18 +10724,18 @@
       <c r="P5" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
     </row>
     <row r="6" ht="15.5" spans="1:18">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="100"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="28"/>
@@ -10756,11 +10748,11 @@
       <c r="P6" s="14">
         <v>0.958333333333333</v>
       </c>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
     </row>
     <row r="7" ht="15.5" spans="1:18">
-      <c r="A7" s="99"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -10776,8 +10768,8 @@
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
     </row>
     <row r="8" ht="15.5" spans="1:18">
       <c r="A8" s="28" t="s">
@@ -10794,8 +10786,8 @@
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
     </row>
     <row r="9" ht="15.5" spans="1:18">
       <c r="A9" s="28"/>
@@ -10814,8 +10806,8 @@
       <c r="N9" s="53"/>
       <c r="O9" s="28"/>
       <c r="P9" s="53"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
     </row>
     <row r="10" ht="15.5" spans="1:18">
       <c r="A10" s="28" t="s">
@@ -10839,8 +10831,8 @@
         <v>0.288194444444444</v>
       </c>
       <c r="O10" s="53"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
     </row>
     <row r="11" ht="15.5" spans="1:18">
       <c r="A11" s="28" t="s">
@@ -10868,46 +10860,46 @@
       <c r="P11" s="28">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" ht="15.5" spans="1:18">
       <c r="A12" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="28"/>
-      <c r="C12" s="101"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="99"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" ht="15.5" spans="1:18">
       <c r="A13" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="101"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="101"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="53"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
       <c r="N13" s="53"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:18">
       <c r="A14" s="28" t="s">
@@ -10935,8 +10927,8 @@
       <c r="K14" s="28"/>
       <c r="N14" s="28"/>
       <c r="P14" s="53"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" ht="15.5" spans="1:18">
       <c r="A15" s="28" t="s">
@@ -10958,22 +10950,22 @@
       <c r="P15" s="53">
         <v>0.333333333333333</v>
       </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" ht="15.5" spans="1:18">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="101"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="28"/>
       <c r="I16" s="28"/>
       <c r="K16" s="53"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="53"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
     </row>
     <row r="17" ht="15.5" spans="1:18">
       <c r="A17" s="28" t="s">
@@ -10997,8 +10989,8 @@
       <c r="P17" s="28">
         <v>0.375</v>
       </c>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" ht="15.5" spans="1:18">
       <c r="A18" s="28" t="s">
@@ -11021,8 +11013,8 @@
       <c r="L18" s="53"/>
       <c r="M18" s="28"/>
       <c r="O18" s="53"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" ht="15.5" spans="1:18">
       <c r="A19" s="28" t="s">
@@ -11042,8 +11034,8 @@
       <c r="M19" s="28"/>
       <c r="O19" s="53"/>
       <c r="P19" s="28"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:18">
       <c r="A20" s="28"/>
@@ -11062,11 +11054,11 @@
       <c r="N20" s="53"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
     </row>
     <row r="21" ht="15.5" spans="1:18">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="100" t="s">
         <v>194</v>
       </c>
       <c r="B21" s="28"/>
@@ -11092,11 +11084,11 @@
       <c r="P21" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
     </row>
     <row r="22" ht="15.5" spans="1:18">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="100" t="s">
         <v>195</v>
       </c>
       <c r="B22" s="28"/>
@@ -11117,11 +11109,11 @@
       <c r="N22" s="28">
         <v>0.413194444444444</v>
       </c>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
     </row>
     <row r="23" ht="15.5" spans="1:18">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="100" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="53"/>
@@ -11136,11 +11128,11 @@
       <c r="L23" s="53"/>
       <c r="M23" s="53"/>
       <c r="N23" s="28"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
     </row>
     <row r="24" ht="15.5" spans="1:18">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
@@ -11156,11 +11148,11 @@
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
     </row>
     <row r="25" ht="15.5" spans="1:18">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="97" t="s">
         <v>155</v>
       </c>
       <c r="D25" s="28"/>
@@ -11178,11 +11170,11 @@
       <c r="J25" s="28"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
     </row>
     <row r="26" ht="15.5" spans="1:18">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="97" t="s">
         <v>156</v>
       </c>
       <c r="B26" s="28">
@@ -11203,8 +11195,8 @@
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
       <c r="O26" s="28"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
     </row>
     <row r="27" ht="15.5" spans="1:18">
       <c r="A27" s="28" t="s">
@@ -11228,31 +11220,31 @@
       <c r="P27" s="53">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
     </row>
     <row r="28" ht="15.5" spans="1:18">
       <c r="A28" s="28" t="s">
         <v>198</v>
       </c>
       <c r="B28" s="53"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
       <c r="N28" s="28"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
     </row>
     <row r="29" ht="15.5" spans="1:18">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="97" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="28"/>
@@ -11276,11 +11268,11 @@
       <c r="P29" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="30" ht="15.5" spans="1:18">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="97" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="28"/>
@@ -11297,8 +11289,8 @@
       <c r="N30" s="53"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
     </row>
     <row r="31" ht="15.5" spans="1:18">
       <c r="A31" s="28" t="s">
@@ -11328,8 +11320,8 @@
       </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
     </row>
     <row r="32" ht="15.5" spans="1:18">
       <c r="A32" s="28" t="s">
@@ -11357,8 +11349,8 @@
       <c r="P32" s="28">
         <v>0.541666666666667</v>
       </c>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:18">
       <c r="A33" s="28" t="s">
@@ -11381,8 +11373,8 @@
         <v>0.579861111111111</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:18">
       <c r="A34" s="28" t="s">
@@ -11398,8 +11390,8 @@
       <c r="K34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
     </row>
     <row r="35" ht="15.5" spans="1:18">
       <c r="A35" s="28" t="s">
@@ -11425,8 +11417,8 @@
       <c r="P35" s="28">
         <v>0.625</v>
       </c>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
     </row>
     <row r="36" ht="15.75" hidden="1" customHeight="1" spans="1:18">
       <c r="A36" s="28" t="s">
@@ -11449,8 +11441,8 @@
       <c r="N36" s="28"/>
       <c r="O36" s="53"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:18">
       <c r="A37" s="28" t="s">
@@ -11461,8 +11453,8 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" s="28" t="s">
@@ -11486,9 +11478,9 @@
       <c r="N38" s="28">
         <v>0.663194444444444</v>
       </c>
-      <c r="O38" s="91"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
+      <c r="O38" s="89"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
     </row>
     <row r="39" ht="15.5" spans="1:18">
       <c r="A39" s="28" t="s">
@@ -11505,7 +11497,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="101"/>
+      <c r="L39" s="99"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28">
         <v>0.663194444444444</v>
@@ -11513,129 +11505,129 @@
       <c r="P39" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
     </row>
     <row r="40" ht="15.5" spans="1:18">
       <c r="A40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="101"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="53"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="101"/>
+      <c r="F40" s="99"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" ht="15.5" spans="1:18">
       <c r="A41" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="91">
+      <c r="C41" s="89"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="89">
         <v>0.684027777777778</v>
       </c>
-      <c r="G41" s="91">
+      <c r="G41" s="89">
         <v>0.690972222222222</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="89">
         <v>0.694444444444445</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91">
+      <c r="M41" s="102"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89">
         <v>0.708333333333333</v>
       </c>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" ht="15.5" spans="1:18">
       <c r="A42" s="28" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="43" ht="15.5" spans="1:18">
       <c r="A43" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="D43" s="91">
+      <c r="B43" s="89"/>
+      <c r="D43" s="89">
         <v>0.725694444444445</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91">
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89">
         <v>0.732638888888889</v>
       </c>
-      <c r="H43" s="91">
+      <c r="H43" s="89">
         <v>0.736111111111111</v>
       </c>
       <c r="I43" s="28"/>
-      <c r="J43" s="91"/>
-      <c r="M43" s="91"/>
+      <c r="J43" s="89"/>
+      <c r="M43" s="89"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="91">
+      <c r="P43" s="89">
         <v>0.75</v>
       </c>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
     </row>
     <row r="44" ht="15.5" spans="1:18">
       <c r="A44" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="101"/>
+      <c r="B44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="99"/>
       <c r="O44" s="28"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:18">
       <c r="A45" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91">
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89">
         <v>0.777777777777778</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
-      <c r="M45" s="91"/>
+      <c r="M45" s="89"/>
       <c r="O45" s="28"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
     </row>
     <row r="46" ht="15.5" spans="1:18">
       <c r="A46" s="28" t="s">
@@ -11645,7 +11637,7 @@
       <c r="C46" s="53"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-      <c r="G46" s="100"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -11654,29 +11646,29 @@
       <c r="M46" s="53"/>
       <c r="N46" s="53"/>
       <c r="O46" s="53"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:18">
       <c r="A47" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B47" s="53"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="91">
+      <c r="E47" s="102"/>
+      <c r="F47" s="89">
         <v>0.8125</v>
       </c>
-      <c r="H47" s="91">
+      <c r="H47" s="89">
         <v>0.819444444444445</v>
       </c>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
-      <c r="P47" s="104"/>
+      <c r="P47" s="102"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
@@ -11696,145 +11688,145 @@
       <c r="M48" s="53"/>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" ht="15.5" spans="1:18">
       <c r="A49" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="H49" s="104">
+      <c r="C49" s="104"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="H49" s="102">
         <v>0.861111111111111</v>
       </c>
-      <c r="J49" s="104"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="104">
+      <c r="J49" s="102"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="102">
         <v>0.871527777777778</v>
       </c>
-      <c r="M49" s="104"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="109"/>
     </row>
     <row r="50" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="91">
+      <c r="B50" s="89">
         <v>0.895833333333333</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="91">
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="89">
         <v>0.899305555555555</v>
       </c>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="91">
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="89">
         <v>0.90625</v>
       </c>
-      <c r="I50" s="91">
+      <c r="I50" s="89">
         <v>0.913194444444445</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="91">
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="89">
         <v>0.923611111111111</v>
       </c>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
     </row>
     <row r="51" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
     </row>
     <row r="52" ht="15.5" spans="1:18">
       <c r="A52" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="F52" s="104">
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="F52" s="102">
         <v>0.895833333333333</v>
       </c>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104">
+      <c r="G52" s="102"/>
+      <c r="H52" s="102">
         <v>0.902777777777778</v>
       </c>
-      <c r="L52" s="104"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="104">
+      <c r="L52" s="102"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="102">
         <v>0.913194444444445</v>
       </c>
-      <c r="P52" s="104">
+      <c r="P52" s="102">
         <v>0.916666666666667</v>
       </c>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="112"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
     </row>
     <row r="53" ht="15.5" spans="1:18">
       <c r="A53" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="104">
+      <c r="B53" s="102">
         <v>0.895833333333333</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104">
+      <c r="C53" s="107"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102">
         <v>0.909722222222222</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="102">
         <v>0.913194444444445</v>
       </c>
-      <c r="Q53" s="112"/>
-      <c r="R53" s="112"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
     </row>
     <row r="54" ht="15.5" spans="1:15">
       <c r="A54" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="I54" s="104"/>
+      <c r="B54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="I54" s="102"/>
       <c r="L54" s="28"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="104"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="102"/>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" s="1" t="s">
@@ -11944,10 +11936,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5727272727273" style="75" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="75" customWidth="1"/>
-    <col min="4" max="4" width="15" style="75" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="73" customWidth="1"/>
+    <col min="2" max="2" width="10.5727272727273" style="74" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="74" customWidth="1"/>
+    <col min="4" max="4" width="15" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -11967,36 +11959,36 @@
       <c r="D2" s="54"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="80" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>228</v>
       </c>
       <c r="K5" t="s">
@@ -12004,7 +11996,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="28"/>
@@ -12012,18 +12004,18 @@
       <c r="D6" s="28"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <v>0.277777777777778</v>
       </c>
       <c r="C8" s="28">
@@ -12034,18 +12026,18 @@
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="28">
         <v>0.333333333333333</v>
       </c>
@@ -12054,10 +12046,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="84">
         <v>0.361111111111111</v>
       </c>
       <c r="C11" s="28">
@@ -12068,19 +12060,19 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="87"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="87"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:4">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="28">
@@ -12094,21 +12086,21 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="88"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="87" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="28">
@@ -12117,20 +12109,20 @@
       <c r="C17" s="28">
         <v>0.451388888888889</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="84">
         <v>0.454861111111111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="87" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="86" t="s">
         <v>230</v>
       </c>
       <c r="B19" s="28"/>
@@ -12140,7 +12132,7 @@
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="86" t="s">
         <v>231</v>
       </c>
       <c r="B20" s="28">
@@ -12152,12 +12144,12 @@
       <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
         <v>232</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="90"/>
+      <c r="D21" s="88"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="24" t="s">
@@ -12203,7 +12195,7 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="86"/>
+      <c r="D26" s="85"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" spans="1:4">
       <c r="A27" s="24" t="s">
@@ -12273,33 +12265,33 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="24"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="24"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="87"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="93"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="91"/>
     </row>
     <row r="39" ht="17.25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="91">
+      <c r="B39" s="91"/>
+      <c r="C39" s="89">
         <v>0.909722222222222</v>
       </c>
-      <c r="D39" s="93"/>
+      <c r="D39" s="91"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="75">
+      <c r="C42" s="74">
         <v>0</v>
       </c>
     </row>
@@ -12490,21 +12482,21 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="66"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="26"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="71"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>249</v>
       </c>
       <c r="B7" s="15"/>
@@ -12512,15 +12504,15 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="71"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:13">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="15">
@@ -12532,15 +12524,15 @@
         <v>0.277777777777778</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="71"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" ht="15.5" spans="1:6">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="15"/>
@@ -12550,7 +12542,7 @@
       <c r="F9" s="15"/>
     </row>
     <row r="10" ht="15.5" spans="1:6">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="15">
@@ -12564,7 +12556,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="15">
@@ -12582,7 +12574,7 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>153</v>
       </c>
       <c r="B12" s="15">
@@ -12601,7 +12593,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:12">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="67" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="13"/>
@@ -12618,7 +12610,7 @@
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="15">
@@ -12631,7 +12623,7 @@
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="67" t="s">
         <v>156</v>
       </c>
       <c r="B15" s="15"/>
@@ -12641,7 +12633,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:12">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="15">
@@ -12658,7 +12650,7 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:6">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="15"/>
@@ -12672,7 +12664,7 @@
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:12">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="15"/>
@@ -12689,7 +12681,7 @@
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:6">
-      <c r="A19" s="68"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -12697,7 +12689,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -12705,7 +12697,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="15">
@@ -12719,7 +12711,7 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>254</v>
       </c>
       <c r="B22" s="15">
@@ -12739,17 +12731,17 @@
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:6">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>255</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:6">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="68" t="s">
         <v>256</v>
       </c>
       <c r="B24" s="15">
@@ -12761,7 +12753,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>257</v>
       </c>
       <c r="B25" s="15"/>
@@ -12770,7 +12762,7 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" ht="15.5" spans="1:14">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="65" t="s">
         <v>124</v>
       </c>
       <c r="B26" s="15"/>
@@ -12792,7 +12784,7 @@
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:14">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="15"/>
@@ -12819,7 +12811,7 @@
       <c r="F28" s="25"/>
     </row>
     <row r="29" ht="15.95" customHeight="1" spans="1:14">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="15"/>
@@ -12832,7 +12824,7 @@
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:6">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="15"/>
@@ -12842,7 +12834,7 @@
       <c r="F30" s="15"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="15">
@@ -12856,7 +12848,7 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32" ht="15.5" hidden="1" spans="1:6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="69" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="15">
@@ -12868,7 +12860,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" ht="15.5" spans="1:6">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
@@ -13086,24 +13078,24 @@
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="15">
         <v>0.267361111111111</v>
       </c>
@@ -13165,7 +13157,7 @@
       <c r="B14" s="15">
         <v>0.510416666666667</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="14">
         <v>0.517361111111111</v>
       </c>
@@ -13183,7 +13175,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <v>0.545138888888889</v>
       </c>
       <c r="D16" s="15">
@@ -13205,7 +13197,7 @@
       <c r="B18" s="14">
         <v>0.635416666666667</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="15">
         <v>0.642361111111112</v>
       </c>
@@ -13222,8 +13214,8 @@
       <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21" ht="15.5" spans="1:4">
@@ -13252,7 +13244,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="15">
         <v>0.809027777777778</v>
       </c>
@@ -13262,7 +13254,7 @@
         <v>234</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="15"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:4">
@@ -13272,10 +13264,10 @@
       <c r="B26" s="28">
         <v>0.885416666666667</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>0.878472222222222</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="58">
         <v>0.892361111111111</v>
       </c>
     </row>
@@ -13490,7 +13482,7 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" ht="15.5" spans="1:6">
@@ -13504,7 +13496,7 @@
         <v>0.40625</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:6">
@@ -13518,7 +13510,7 @@
         <v>0.447916666666667</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <v>0.451388888888889</v>
       </c>
       <c r="F13" s="15"/>
@@ -13530,7 +13522,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" ht="15.5" spans="1:6">
